--- a/economics/staging/dividend_data_2022_2023.xlsx
+++ b/economics/staging/dividend_data_2022_2023.xlsx
@@ -476,14 +476,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24,123,119,616</t>
+          <t>24,131,160,064</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>134.9808654785156</v>
       </c>
       <c r="E2" t="n">
-        <v>188.0840301513672</v>
+        <v>188.0840454101562</v>
       </c>
       <c r="F2" t="n">
         <v>2021</v>
@@ -500,11 +500,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>32,951,693,312</t>
+          <t>32,882,962,432</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>380.860107421875</v>
+        <v>380.8601379394531</v>
       </c>
       <c r="E3" t="n">
         <v>507.2027893066406</v>
@@ -524,14 +524,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>117,001,601,024</t>
+          <t>117,237,686,272</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>104.7503356933594</v>
+        <v>104.7503509521484</v>
       </c>
       <c r="E4" t="n">
-        <v>124.3390502929688</v>
+        <v>124.3390426635742</v>
       </c>
       <c r="F4" t="n">
         <v>2021</v>
@@ -548,14 +548,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>288,951,533,568</t>
+          <t>289,159,938,048</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>76.264892578125</v>
+        <v>76.26488494873047</v>
       </c>
       <c r="E5" t="n">
-        <v>111.2642517089844</v>
+        <v>111.2642440795898</v>
       </c>
       <c r="F5" t="n">
         <v>2021</v>
@@ -572,11 +572,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>208,193,617,920</t>
+          <t>208,281,223,168</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>199.858642578125</v>
+        <v>199.8586120605469</v>
       </c>
       <c r="E6" t="n">
         <v>259.8561706542969</v>
@@ -596,14 +596,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>67,780,763,648</t>
+          <t>67,823,554,560</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>192.9323577880859</v>
       </c>
       <c r="E7" t="n">
-        <v>237.9883422851562</v>
+        <v>237.9883728027344</v>
       </c>
       <c r="F7" t="n">
         <v>2021</v>
@@ -620,11 +620,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>56,192,241,664</t>
+          <t>56,211,443,712</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>137.5316009521484</v>
+        <v>137.5316314697266</v>
       </c>
       <c r="E8" t="n">
         <v>200.7386779785156</v>
@@ -644,14 +644,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>45,134,827,520</t>
+          <t>45,296,771,072</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>123.253547668457</v>
       </c>
       <c r="E9" t="n">
-        <v>135.2756958007812</v>
+        <v>135.2757110595703</v>
       </c>
       <c r="F9" t="n">
         <v>2021</v>
@@ -668,14 +668,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>107,998,928,896</t>
+          <t>108,179,644,416</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>172.5608215332031</v>
       </c>
       <c r="E10" t="n">
-        <v>199.3094787597656</v>
+        <v>199.3094635009766</v>
       </c>
       <c r="F10" t="n">
         <v>2021</v>
@@ -692,11 +692,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>249,830,293,504</t>
+          <t>249,990,103,040</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>135.6055755615234</v>
+        <v>135.6055603027344</v>
       </c>
       <c r="E11" t="n">
         <v>167.0418243408203</v>
@@ -716,11 +716,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>399,554,740,224</t>
+          <t>400,042,000,384</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>146.5767059326172</v>
+        <v>146.5766906738281</v>
       </c>
       <c r="E12" t="n">
         <v>165.4513702392578</v>
@@ -740,14 +740,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>86,348,906,496</t>
+          <t>86,076,243,968</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>161.7968292236328</v>
+        <v>161.7968139648438</v>
       </c>
       <c r="E13" t="n">
-        <v>239.6160736083984</v>
+        <v>239.6160888671875</v>
       </c>
       <c r="F13" t="n">
         <v>2021</v>
@@ -764,7 +764,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>399,506,276,352</t>
+          <t>398,980,251,648</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -788,11 +788,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>59,340,480,512</t>
+          <t>59,280,105,472</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47.11760711669922</v>
+        <v>47.11761093139648</v>
       </c>
       <c r="E15" t="n">
         <v>66.04045867919922</v>
@@ -812,11 +812,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>126,350,336,000</t>
+          <t>126,220,083,200</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>74.54875183105469</v>
+        <v>74.54875946044922</v>
       </c>
       <c r="E16" t="n">
         <v>99.59667205810547</v>
@@ -836,11 +836,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>59,347,075,072</t>
+          <t>59,318,808,576</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>67.96181488037109</v>
+        <v>67.96183776855469</v>
       </c>
       <c r="E17" t="n">
         <v>100.5711975097656</v>
@@ -860,7 +860,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>337,070,260,224</t>
+          <t>337,541,693,440</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -884,14 +884,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>78,645,428,224</t>
+          <t>78,585,380,864</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>144.0942687988281</v>
+        <v>144.0942840576172</v>
       </c>
       <c r="E19" t="n">
-        <v>189.1818695068359</v>
+        <v>189.1818542480469</v>
       </c>
       <c r="F19" t="n">
         <v>2021</v>
@@ -908,14 +908,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>121,579,036,672</t>
+          <t>121,590,882,304</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>153.665771484375</v>
       </c>
       <c r="E20" t="n">
-        <v>249.1754913330078</v>
+        <v>249.1754760742188</v>
       </c>
       <c r="F20" t="n">
         <v>2021</v>
@@ -932,11 +932,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>39,770,591,232</t>
+          <t>39,763,857,408</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>52.35569381713867</v>
+        <v>52.3557014465332</v>
       </c>
       <c r="E21" t="n">
         <v>67.47230529785156</v>
@@ -956,14 +956,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6,046,819,840</t>
+          <t>6,035,593,728</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>59.24264144897461</v>
+        <v>59.24264907836914</v>
       </c>
       <c r="E22" t="n">
-        <v>67.51310729980469</v>
+        <v>67.51313018798828</v>
       </c>
       <c r="F22" t="n">
         <v>2021</v>
@@ -980,14 +980,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3,207,402,752</t>
+          <t>3,204,184,064</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>26.60107421875</v>
       </c>
       <c r="E23" t="n">
-        <v>40.11561965942383</v>
+        <v>40.1156120300293</v>
       </c>
       <c r="F23" t="n">
         <v>2021</v>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>110,297,530,368</t>
+          <t>110,018,060,288</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1028,14 +1028,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1,304,414,976</t>
+          <t>1,307,428,608</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>32.56966781616211</v>
+        <v>32.56967926025391</v>
       </c>
       <c r="E25" t="n">
-        <v>31.37405776977539</v>
+        <v>31.37405395507812</v>
       </c>
       <c r="F25" t="n">
         <v>2021</v>
@@ -1052,11 +1052,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>48,499,892,224</t>
+          <t>48,540,397,568</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>413.6779174804688</v>
+        <v>413.6778869628906</v>
       </c>
       <c r="E26" t="n">
         <v>484.8185729980469</v>
@@ -1076,14 +1076,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>58,773,131,264</t>
+          <t>58,672,553,984</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>235.7237701416016</v>
+        <v>235.7238159179688</v>
       </c>
       <c r="E27" t="n">
-        <v>345.1803283691406</v>
+        <v>345.1803588867188</v>
       </c>
       <c r="F27" t="n">
         <v>2021</v>
@@ -1100,11 +1100,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>396,024,938,496</t>
+          <t>394,945,953,792</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>140.8892517089844</v>
+        <v>140.8892211914062</v>
       </c>
       <c r="E28" t="n">
         <v>139.8476867675781</v>
@@ -1124,14 +1124,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>111,595,888,640</t>
+          <t>111,846,113,280</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>18.28327560424805</v>
+        <v>18.28327369689941</v>
       </c>
       <c r="E29" t="n">
-        <v>16.92998123168945</v>
+        <v>16.92998504638672</v>
       </c>
       <c r="F29" t="n">
         <v>2021</v>
@@ -1148,14 +1148,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>44,928,475,136</t>
+          <t>44,845,608,960</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>73.69292449951172</v>
+        <v>73.69290924072266</v>
       </c>
       <c r="E30" t="n">
-        <v>89.43716430664062</v>
+        <v>89.43717193603516</v>
       </c>
       <c r="F30" t="n">
         <v>2021</v>
@@ -1172,14 +1172,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20,897,568,768</t>
+          <t>20,912,844,800</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>49.17269897460938</v>
       </c>
       <c r="E31" t="n">
-        <v>49.74269485473633</v>
+        <v>49.74269866943359</v>
       </c>
       <c r="F31" t="n">
         <v>2021</v>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>47,157,481,472</t>
+          <t>47,172,571,136</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>208.8324279785156</v>
+        <v>208.8324432373047</v>
       </c>
       <c r="E32" t="n">
-        <v>230.0459136962891</v>
+        <v>230.0458984375</v>
       </c>
       <c r="F32" t="n">
         <v>2021</v>
@@ -1220,14 +1220,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>112,450,371,584</t>
+          <t>112,358,670,336</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>98.08654022216797</v>
+        <v>98.08656311035156</v>
       </c>
       <c r="E33" t="n">
-        <v>112.4156799316406</v>
+        <v>112.4156723022461</v>
       </c>
       <c r="F33" t="n">
         <v>2021</v>
@@ -1244,14 +1244,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>35,215,028,224</t>
+          <t>35,217,563,648</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>68.09639739990234</v>
       </c>
       <c r="E34" t="n">
-        <v>75.1995849609375</v>
+        <v>75.19960021972656</v>
       </c>
       <c r="F34" t="n">
         <v>2021</v>
@@ -1268,14 +1268,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>33,592,283,136</t>
+          <t>33,563,396,096</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>50.5722770690918</v>
       </c>
       <c r="E35" t="n">
-        <v>111.6098785400391</v>
+        <v>111.6098709106445</v>
       </c>
       <c r="F35" t="n">
         <v>2021</v>
@@ -1292,14 +1292,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>59,917,312,000</t>
+          <t>60,015,841,280</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>21.23834037780762</v>
+        <v>21.23834228515625</v>
       </c>
       <c r="E36" t="n">
-        <v>37.99874114990234</v>
+        <v>37.99874496459961</v>
       </c>
       <c r="F36" t="n">
         <v>2021</v>
@@ -1316,11 +1316,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>6,346,951,680</t>
+          <t>6,339,610,112</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>27.57851028442383</v>
+        <v>27.57851409912109</v>
       </c>
       <c r="E37" t="n">
         <v>44.81400680541992</v>
@@ -1340,14 +1340,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5,459,462,656</t>
+          <t>5,447,786,496</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>11.83540344238281</v>
+        <v>11.83540439605713</v>
       </c>
       <c r="E38" t="n">
-        <v>12.76325988769531</v>
+        <v>12.763258934021</v>
       </c>
       <c r="F38" t="n">
         <v>2021</v>
@@ -1364,14 +1364,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>12,333,751,296</t>
+          <t>12,351,282,176</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>22.17562484741211</v>
       </c>
       <c r="E39" t="n">
-        <v>31.57299613952637</v>
+        <v>31.572998046875</v>
       </c>
       <c r="F39" t="n">
         <v>2021</v>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16,305,796,096</t>
+          <t>16,206,430,208</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1412,14 +1412,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2,789,104,418,816</t>
+          <t>2,786,968,469,504</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>127.5036239624023</v>
+        <v>127.5036468505859</v>
       </c>
       <c r="E41" t="n">
-        <v>176.6572875976562</v>
+        <v>176.6572723388672</v>
       </c>
       <c r="F41" t="n">
         <v>2021</v>
@@ -1436,14 +1436,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2,507,523,840</t>
+          <t>2,505,512,704</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4.357766151428223</v>
+        <v>4.357766628265381</v>
       </c>
       <c r="E42" t="n">
-        <v>7.293408870697021</v>
+        <v>7.293409824371338</v>
       </c>
       <c r="F42" t="n">
         <v>2021</v>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>32,951,693,312</t>
+          <t>32,882,962,432</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1484,11 +1484,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>117,001,601,024</t>
+          <t>117,237,686,272</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>126.3167953491211</v>
+        <v>126.3167877197266</v>
       </c>
       <c r="E44" t="n">
         <v>137.3081359863281</v>
@@ -1508,14 +1508,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>288,951,533,568</t>
+          <t>289,159,938,048</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>112.998161315918</v>
+        <v>112.9981689453125</v>
       </c>
       <c r="E45" t="n">
-        <v>176.1918182373047</v>
+        <v>176.1918334960938</v>
       </c>
       <c r="F45" t="n">
         <v>2022</v>
@@ -1532,11 +1532,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>208,193,617,920</t>
+          <t>208,281,223,168</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>261.1884460449219</v>
+        <v>261.1884765625</v>
       </c>
       <c r="E46" t="n">
         <v>262.0171813964844</v>
@@ -1556,11 +1556,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>67,780,763,648</t>
+          <t>67,823,554,560</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>236.1167297363281</v>
+        <v>236.1167144775391</v>
       </c>
       <c r="E47" t="n">
         <v>219.0947113037109</v>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>56,192,241,664</t>
+          <t>56,211,443,712</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1604,11 +1604,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>24,123,119,616</t>
+          <t>24,131,160,064</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>184.7047119140625</v>
+        <v>184.7047424316406</v>
       </c>
       <c r="E49" t="n">
         <v>107.8123168945312</v>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>45,134,827,520</t>
+          <t>45,296,771,072</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1652,11 +1652,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>107,998,928,896</t>
+          <t>108,179,644,416</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>200.1992492675781</v>
+        <v>200.1992797851562</v>
       </c>
       <c r="E51" t="n">
         <v>237.1357421875</v>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>249,830,293,504</t>
+          <t>249,990,103,040</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1700,14 +1700,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>399,554,740,224</t>
+          <t>400,042,000,384</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>164.7120361328125</v>
       </c>
       <c r="E53" t="n">
-        <v>174.0751190185547</v>
+        <v>174.0751342773438</v>
       </c>
       <c r="F53" t="n">
         <v>2022</v>
@@ -1724,11 +1724,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>86,348,906,496</t>
+          <t>86,076,243,968</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>238.1035919189453</v>
+        <v>238.1035766601562</v>
       </c>
       <c r="E54" t="n">
         <v>237.514892578125</v>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>59,347,075,072</t>
+          <t>59,318,808,576</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1772,11 +1772,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>399,506,276,352</t>
+          <t>398,980,251,648</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>154.391357421875</v>
+        <v>154.3913421630859</v>
       </c>
       <c r="E56" t="n">
         <v>132.0801544189453</v>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>126,350,336,000</t>
+          <t>126,220,083,200</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>121,579,036,672</t>
+          <t>121,590,882,304</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>337,070,260,224</t>
+          <t>337,541,693,440</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>59,917,312,000</t>
+          <t>60,015,841,280</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>39.07014846801758</v>
+        <v>39.07015228271484</v>
       </c>
       <c r="E60" t="n">
         <v>54.8139762878418</v>
@@ -1892,11 +1892,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>78,645,428,224</t>
+          <t>78,585,380,864</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>187.5458374023438</v>
+        <v>187.5458221435547</v>
       </c>
       <c r="E61" t="n">
         <v>219.6229553222656</v>
@@ -1916,14 +1916,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>39,770,591,232</t>
+          <t>39,763,857,408</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>67.036376953125</v>
+        <v>67.03636932373047</v>
       </c>
       <c r="E62" t="n">
-        <v>62.43508148193359</v>
+        <v>62.43507766723633</v>
       </c>
       <c r="F62" t="n">
         <v>2022</v>
@@ -1940,11 +1940,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3,207,402,752</t>
+          <t>3,204,184,064</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>40.11905288696289</v>
+        <v>40.11904907226562</v>
       </c>
       <c r="E63" t="n">
         <v>35.75383758544922</v>
@@ -1964,14 +1964,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>6,046,819,840</t>
+          <t>6,035,593,728</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>67.03006744384766</v>
+        <v>67.03007507324219</v>
       </c>
       <c r="E64" t="n">
-        <v>69.95680999755859</v>
+        <v>69.95681762695312</v>
       </c>
       <c r="F64" t="n">
         <v>2022</v>
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>110,297,530,368</t>
+          <t>110,018,060,288</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>102.0455093383789</v>
+        <v>102.0455169677734</v>
       </c>
       <c r="E65" t="n">
         <v>77.05888366699219</v>
@@ -2012,14 +2012,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>48,499,892,224</t>
+          <t>48,540,397,568</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>470.7544860839844</v>
       </c>
       <c r="E66" t="n">
-        <v>430.7387390136719</v>
+        <v>430.7387084960938</v>
       </c>
       <c r="F66" t="n">
         <v>2022</v>
@@ -2036,11 +2036,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>58,773,131,264</t>
+          <t>58,672,553,984</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>334.1065673828125</v>
+        <v>334.1065368652344</v>
       </c>
       <c r="E67" t="n">
         <v>236.0572052001953</v>
@@ -2060,14 +2060,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>59,340,480,512</t>
+          <t>59,280,105,472</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>66.49192810058594</v>
+        <v>66.49193572998047</v>
       </c>
       <c r="E68" t="n">
-        <v>47.49136734008789</v>
+        <v>47.49136352539062</v>
       </c>
       <c r="F68" t="n">
         <v>2022</v>
@@ -2084,14 +2084,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1,304,414,976</t>
+          <t>1,307,428,608</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>32.09792709350586</v>
+        <v>32.09793090820312</v>
       </c>
       <c r="E69" t="n">
-        <v>34.57462310791016</v>
+        <v>34.57462692260742</v>
       </c>
       <c r="F69" t="n">
         <v>2022</v>
@@ -2108,11 +2108,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>396,024,938,496</t>
+          <t>394,945,953,792</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>141.2933349609375</v>
+        <v>141.2933197021484</v>
       </c>
       <c r="E70" t="n">
         <v>140.6768341064453</v>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>44,928,475,136</t>
+          <t>44,845,608,960</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>47,157,481,472</t>
+          <t>47,172,571,136</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>33,592,283,136</t>
+          <t>33,563,396,096</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2204,11 +2204,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>112,450,371,584</t>
+          <t>112,358,670,336</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>112.841194152832</v>
+        <v>112.8412094116211</v>
       </c>
       <c r="E74" t="n">
         <v>98.21634674072266</v>
@@ -2228,11 +2228,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>20,897,568,768</t>
+          <t>20,912,844,800</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>50.06129455566406</v>
+        <v>50.0612907409668</v>
       </c>
       <c r="E75" t="n">
         <v>76.36399841308594</v>
@@ -2252,11 +2252,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>35,215,028,224</t>
+          <t>35,217,563,648</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>76.11549377441406</v>
+        <v>76.115478515625</v>
       </c>
       <c r="E76" t="n">
         <v>75.48267364501953</v>
@@ -2276,14 +2276,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>6,346,951,680</t>
+          <t>6,339,610,112</t>
         </is>
       </c>
       <c r="D77" t="n">
         <v>44.36095428466797</v>
       </c>
       <c r="E77" t="n">
-        <v>31.84606552124023</v>
+        <v>31.8460636138916</v>
       </c>
       <c r="F77" t="n">
         <v>2022</v>
@@ -2300,7 +2300,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>5,459,462,656</t>
+          <t>5,447,786,496</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2324,14 +2324,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>111,595,888,640</t>
+          <t>111,846,113,280</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>17.37407302856445</v>
+        <v>17.37407493591309</v>
       </c>
       <c r="E79" t="n">
-        <v>17.89416313171387</v>
+        <v>17.8941650390625</v>
       </c>
       <c r="F79" t="n">
         <v>2022</v>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>12,333,751,296</t>
+          <t>12,351,282,176</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>31.54467010498047</v>
+        <v>31.54467391967773</v>
       </c>
       <c r="E80" t="n">
         <v>26.08169555664062</v>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>16,305,796,096</t>
+          <t>16,206,430,208</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2,789,104,418,816</t>
+          <t>2,786,968,469,504</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2420,14 +2420,14 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2,507,523,840</t>
+          <t>2,505,512,704</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>7.432831287384033</v>
+        <v>7.4328293800354</v>
       </c>
       <c r="E83" t="n">
-        <v>6.696971416473389</v>
+        <v>6.69697093963623</v>
       </c>
       <c r="F83" t="n">
         <v>2022</v>
